--- a/Assignment_4/jobs_data.xlsx
+++ b/Assignment_4/jobs_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/torsthh_ntnu_no/Documents/Skule/Performance Engineering/TPK4186-Performance-Engineering/Assignment_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F8D91B4-BA1B-4453-8681-48F37C87F00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{6F8D91B4-BA1B-4453-8681-48F37C87F00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{226DB3EF-E249-49B4-82B6-EED619AE2BB3}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{4B86B41C-B04E-4F90-A5D9-CB92076708F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B86B41C-B04E-4F90-A5D9-CB92076708F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>job</t>
+    <t>Machine</t>
   </si>
   <si>
-    <t>operation</t>
+    <t>Job</t>
   </si>
   <si>
-    <t>duration</t>
+    <t>Duration</t>
   </si>
 </sst>
 </file>
@@ -398,17 +398,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
